--- a/module2/web_scraping/BatsmanDetails.xlsx
+++ b/module2/web_scraping/BatsmanDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Adults" sheetId="1" r:id="rId1"/>
+    <sheet name="IPL player Details" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -410,19 +410,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>T Bhatia †</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
+        <v>DN Wyatt</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,39 +430,39 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Shafali Verma</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
+        <v>AE Jones †</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>JI Rodrigues</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
+        <v>NR Sciver</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -470,39 +470,39 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>H Kaur (c)</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
+        <v>HC Knight (c)</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DB Sharma</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
+        <v>FC Wilson</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -510,19 +510,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>RM Ghosh</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
+        <v>TT Beaumont</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -530,19 +530,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>V Krishnamurthy</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
+        <v>KH Brunt</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>S Pandey</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
+        <v>L Winfield-Hill</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -570,19 +570,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Shamima Sultana</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
+        <v>S Ecclestone</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -590,16 +590,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Murshida Khatun</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
+        <v>Muneeba Ali</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -610,19 +610,19 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanjida Islam</v>
-      </c>
-      <c r="B12" t="str">
-        <v/>
+        <v>Javeria Khan</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -630,19 +630,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Nigar Sultana †</v>
-      </c>
-      <c r="B13" t="str">
-        <v/>
+        <v>Bismah Maroof (c)</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -650,19 +650,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fargana Hoque</v>
-      </c>
-      <c r="B14" t="str">
-        <v/>
+        <v>Nida Dar</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -670,39 +670,39 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Fahima Khatun</v>
-      </c>
-      <c r="B15" t="str">
-        <v/>
+        <v>Iram Javed</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jahanara Alam</v>
-      </c>
-      <c r="B16" t="str">
-        <v/>
+        <v>Omaima Sohail</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -710,36 +710,36 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Rumana Ahmed</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
+        <v>Aliya Riaz</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Salma Khatun (c)</v>
-      </c>
-      <c r="B18" t="str">
-        <v/>
+        <v>Sidra Nawaz †</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nahida Akter</v>
-      </c>
-      <c r="B19" t="str">
-        <v/>
+        <v>Aiman Anwer</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -770,19 +770,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>N Chantham</v>
-      </c>
-      <c r="B20" t="str">
-        <v/>
+        <v>Diana Baig</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -790,19 +790,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>N Boochatham</v>
-      </c>
-      <c r="B21" t="str">
-        <v/>
+        <v>Sadia Iqbal</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -810,59 +810,59 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>C Sutthiruang</v>
-      </c>
-      <c r="B22" t="str">
-        <v/>
+        <v>L Lee</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>N Koncharoenkai †</v>
-      </c>
-      <c r="B23" t="str">
-        <v/>
+        <v>D van Niekerk (c)</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>O Kamchomphu</v>
-      </c>
-      <c r="B24" t="str">
-        <v/>
+        <v>M Kapp</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -870,39 +870,39 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>AJ Healy †</v>
-      </c>
-      <c r="B25" t="str">
-        <v/>
+        <v>M du Preez</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>BL Mooney</v>
-      </c>
-      <c r="B26" t="str">
-        <v/>
+        <v>L Wolvaardt</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="D26">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -910,79 +910,79 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MM Lanning (c)</v>
-      </c>
-      <c r="B27" t="str">
-        <v/>
+        <v>S Luus</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>A Gardner</v>
-      </c>
-      <c r="B28" t="str">
-        <v/>
+        <v>CL Tryon</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>RL Haynes</v>
-      </c>
-      <c r="B29" t="str">
-        <v/>
+        <v>T Chetty †</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>NJ Carey</v>
-      </c>
-      <c r="B30" t="str">
-        <v/>
+        <v>Javeria Khan (c)</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -990,19 +990,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>S Mandhana</v>
-      </c>
-      <c r="B31" t="str">
-        <v/>
+        <v>N Chantham</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1010,39 +1010,39 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>RP Yadav</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+        <v>N Boochatham</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Poonam Yadav</v>
-      </c>
-      <c r="B33" t="str">
-        <v/>
+        <v>N Koncharoenkai †</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D33">
+        <v>83</v>
+      </c>
+      <c r="E33">
         <v>5</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>RS Gayakwad</v>
-      </c>
-      <c r="B34" t="str">
-        <v/>
+        <v>N Chaiwai</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1070,119 +1070,119 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>L Lee</v>
-      </c>
-      <c r="B35" t="str">
-        <v/>
+        <v>C Sutthiruang</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>D van Niekerk (c)</v>
-      </c>
-      <c r="B36" t="str">
-        <v/>
+        <v>S Tippoch (c)</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>S Luus</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
+        <v>O Kamchomphu</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>CL Tryon</v>
-      </c>
-      <c r="B38" t="str">
-        <v/>
+        <v>W Liengprasert</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>M du Preez</v>
-      </c>
-      <c r="B39" t="str">
-        <v/>
+        <v>R Padunglerd</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>N Chaiwai</v>
-      </c>
-      <c r="B40" t="str">
-        <v/>
+        <v>S Laomi</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1190,19 +1190,19 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>S Tippoch (c)</v>
-      </c>
-      <c r="B41" t="str">
-        <v/>
+        <v>HK Matthews</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1210,56 +1210,56 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>W Liengprasert</v>
-      </c>
-      <c r="B42" t="str">
-        <v/>
+        <v>LAGL Kirby</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>S Laomi</v>
-      </c>
-      <c r="B43" t="str">
-        <v/>
+        <v>SR Taylor (c)</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>R Padunglerd</v>
-      </c>
-      <c r="B44" t="str">
-        <v/>
+        <v>DJS Dottin</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1270,39 +1270,39 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>S Lateh</v>
-      </c>
-      <c r="B45" t="str">
-        <v/>
+        <v>SA Campbelle †</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>HK Matthews</v>
-      </c>
-      <c r="B46" t="str">
-        <v/>
+        <v>A Shrubsole</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1310,39 +1310,39 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>LAGL Kirby</v>
-      </c>
-      <c r="B47" t="str">
-        <v/>
+        <v>AJ Healy †</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SR Taylor (c)</v>
-      </c>
-      <c r="B48" t="str">
-        <v/>
+        <v>BL Mooney</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="D48">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1350,59 +1350,59 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>DJS Dottin</v>
-      </c>
-      <c r="B49" t="str">
-        <v/>
+        <v>A Gardner</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>SA Campbelle †</v>
-      </c>
-      <c r="B50" t="str">
-        <v/>
+        <v>Shamima Sultana</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>U Thimeshani</v>
-      </c>
-      <c r="B51" t="str">
-        <v/>
+        <v>Murshida Khatun</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1410,59 +1410,59 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>AMCJK Athapaththu (c)</v>
-      </c>
-      <c r="B52" t="str">
-        <v/>
+        <v>Sanjida Islam</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>H Madavi</v>
-      </c>
-      <c r="B53" t="str">
-        <v/>
+        <v>Nigar Sultana †</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>H Karunaratne</v>
-      </c>
-      <c r="B54" t="str">
-        <v/>
+        <v>Fargana Hoque</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1470,19 +1470,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>GWHM Perera</v>
-      </c>
-      <c r="B55" t="str">
-        <v/>
+        <v>Rumana Ahmed</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>HASD Siriwardene</v>
-      </c>
-      <c r="B56" t="str">
-        <v/>
+        <v>Fahima Khatun</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1510,19 +1510,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>NND de Silva</v>
-      </c>
-      <c r="B57" t="str">
-        <v/>
+        <v>Jahanara Alam</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1530,19 +1530,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>MAA Sanjeewani †</v>
-      </c>
-      <c r="B58" t="str">
-        <v/>
+        <v>Salma Khatun (c)</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1550,19 +1550,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>WK Dilhari</v>
-      </c>
-      <c r="B59" t="str">
-        <v/>
+        <v>Khadija Tul Kubra</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>S Sandeepani</v>
-      </c>
-      <c r="B60" t="str">
-        <v/>
+        <v>Nahida Akter</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1590,16 +1590,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>KDU Prabodhani</v>
-      </c>
-      <c r="B61" t="str">
-        <v/>
+        <v>S Lateh</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1610,59 +1610,59 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>M Kapp</v>
-      </c>
-      <c r="B62" t="str">
-        <v/>
+        <v>SFM Devine (c)</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D62">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>L Wolvaardt</v>
-      </c>
-      <c r="B63" t="str">
-        <v/>
+        <v>RH Priest †</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D63">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>T Chetty †</v>
-      </c>
-      <c r="B64" t="str">
-        <v/>
+        <v>SW Bates</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1670,39 +1670,39 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Muneeba Ali</v>
-      </c>
-      <c r="B65" t="str">
-        <v/>
+        <v>ML Green</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Javeria Khan (c)</v>
-      </c>
-      <c r="B66" t="str">
-        <v/>
+        <v>HNK Jensen</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1710,39 +1710,39 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Omaima Sohail</v>
-      </c>
-      <c r="B67" t="str">
-        <v/>
+        <v>KJ Martin</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Nida Dar</v>
-      </c>
-      <c r="B68" t="str">
-        <v/>
+        <v>AC Kerr</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1750,36 +1750,36 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Aliya Riaz</v>
-      </c>
-      <c r="B69" t="str">
-        <v/>
+        <v>AM Peterson</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Sidra Nawaz †</v>
-      </c>
-      <c r="B70" t="str">
-        <v/>
+        <v>LM Kasperek</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1790,36 +1790,36 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Iram Javed</v>
-      </c>
-      <c r="B71" t="str">
-        <v/>
+        <v>LMM Tahuhu</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>JL Jonassen</v>
-      </c>
-      <c r="B72" t="str">
-        <v/>
+        <v>RA Mair</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1830,19 +1830,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>N de Klerk</v>
-      </c>
-      <c r="B73" t="str">
-        <v/>
+        <v>Ayasha Rahman</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1850,19 +1850,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>EA Perry</v>
-      </c>
-      <c r="B74" t="str">
-        <v/>
+        <v>Ritu Moni</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1870,19 +1870,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>A Sutherland</v>
-      </c>
-      <c r="B75" t="str">
-        <v/>
+        <v>S Mostary</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>DM Kimmince</v>
-      </c>
-      <c r="B76" t="str">
-        <v/>
+        <v>Panna Ghosh</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1910,19 +1910,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>M Strano</v>
-      </c>
-      <c r="B77" t="str">
-        <v/>
+        <v>U Thimeshani</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1930,59 +1930,59 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>M Schutt</v>
-      </c>
-      <c r="B78" t="str">
-        <v/>
+        <v>AMCJK Athapaththu (c)</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Khadija Tul Kubra</v>
-      </c>
-      <c r="B79" t="str">
-        <v/>
+        <v>H Madavi</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>DN Wyatt</v>
-      </c>
-      <c r="B80" t="str">
-        <v/>
+        <v>H Karunaratne</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1990,19 +1990,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>AE Jones †</v>
-      </c>
-      <c r="B81" t="str">
-        <v/>
+        <v>GWHM Perera</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D81">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2010,59 +2010,59 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>NR Sciver</v>
-      </c>
-      <c r="B82" t="str">
-        <v/>
+        <v>HASD Siriwardene</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>HC Knight (c)</v>
-      </c>
-      <c r="B83" t="str">
-        <v/>
+        <v>NND de Silva</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="E83">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>FC Wilson</v>
-      </c>
-      <c r="B84" t="str">
-        <v/>
+        <v>MAA Sanjeewani †</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D84">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2070,19 +2070,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>TT Beaumont</v>
-      </c>
-      <c r="B85" t="str">
-        <v/>
+        <v>WK Dilhari</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2090,19 +2090,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>KH Brunt</v>
-      </c>
-      <c r="B86" t="str">
-        <v/>
+        <v>S Sandeepani</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2110,16 +2110,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>L Winfield-Hill</v>
-      </c>
-      <c r="B87" t="str">
-        <v/>
+        <v>KDU Prabodhani</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2130,39 +2130,39 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>S Ecclestone</v>
-      </c>
-      <c r="B88" t="str">
-        <v/>
+        <v>Shafali Verma</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Javeria Khan</v>
-      </c>
-      <c r="B89" t="str">
-        <v/>
+        <v>S Mandhana</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2170,59 +2170,59 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Bismah Maroof (c)</v>
-      </c>
-      <c r="B90" t="str">
-        <v/>
+        <v>H Kaur (c)</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
       </c>
       <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
         <v>42</v>
       </c>
-      <c r="D90">
-        <v>46</v>
-      </c>
       <c r="E90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Aiman Anwer</v>
-      </c>
-      <c r="B91" t="str">
-        <v/>
+        <v>JI Rodrigues</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Diana Baig</v>
-      </c>
-      <c r="B92" t="str">
-        <v/>
+        <v>DB Sharma</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Sadia Iqbal</v>
-      </c>
-      <c r="B93" t="str">
-        <v/>
+        <v>KADA Kanchana</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -2250,59 +2250,59 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Ayasha Rahman</v>
-      </c>
-      <c r="B94" t="str">
-        <v/>
+        <v>MM Lanning (c)</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Ritu Moni</v>
-      </c>
-      <c r="B95" t="str">
-        <v/>
+        <v>RL Haynes</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D95">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>KADA Kanchana</v>
-      </c>
-      <c r="B96" t="str">
-        <v/>
+        <v>NJ Carey</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2310,19 +2310,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>RH Priest †</v>
-      </c>
-      <c r="B97" t="str">
-        <v/>
+        <v>EA Perry</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2330,39 +2330,39 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>SFM Devine (c)</v>
-      </c>
-      <c r="B98" t="str">
-        <v/>
+        <v>JL Jonassen</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SW Bates</v>
-      </c>
-      <c r="B99" t="str">
-        <v/>
+        <v>N de Klerk</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2370,59 +2370,59 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>ML Green</v>
-      </c>
-      <c r="B100" t="str">
-        <v/>
+        <v>CA Henry</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>KJ Martin</v>
-      </c>
-      <c r="B101" t="str">
-        <v/>
+        <v>CN Nation</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>AC Kerr</v>
-      </c>
-      <c r="B102" t="str">
-        <v/>
+        <v>ASS Fletcher</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>HNK Jensen</v>
-      </c>
-      <c r="B103" t="str">
-        <v/>
+        <v>SS Connell</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>AM Peterson</v>
-      </c>
-      <c r="B104" t="str">
-        <v/>
+        <v>T Bhatia †</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2470,19 +2470,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>LM Kasperek</v>
-      </c>
-      <c r="B105" t="str">
-        <v/>
+        <v>RM Ghosh</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2490,19 +2490,19 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>LMM Tahuhu</v>
-      </c>
-      <c r="B106" t="str">
-        <v/>
+        <v>V Krishnamurthy</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>RA Mair</v>
-      </c>
-      <c r="B107" t="str">
-        <v/>
+        <v>S Pandey</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2530,36 +2530,36 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>S Mostary</v>
-      </c>
-      <c r="B108" t="str">
-        <v/>
+        <v>RP Yadav</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>11</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Panna Ghosh</v>
-      </c>
-      <c r="B109" t="str">
-        <v/>
+        <v>A Sutherland</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
       </c>
       <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
         <v>5</v>
-      </c>
-      <c r="D109">
-        <v>8</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>CN Nation</v>
-      </c>
-      <c r="B110" t="str">
-        <v/>
+        <v>DM Kimmince</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>B Cooper</v>
-      </c>
-      <c r="B111" t="str">
-        <v/>
+        <v>M Strano</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2610,19 +2610,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>AA Alleyne</v>
-      </c>
-      <c r="B112" t="str">
-        <v/>
+        <v>M Schutt</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2630,19 +2630,19 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>ASS Fletcher</v>
-      </c>
-      <c r="B113" t="str">
-        <v/>
+        <v>WGAKK Kulasuriya</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2650,19 +2650,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>A Mohammed</v>
-      </c>
-      <c r="B114" t="str">
-        <v/>
+        <v>Poonam Yadav</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
       </c>
       <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
         <v>5</v>
       </c>
-      <c r="D114">
-        <v>3</v>
-      </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2670,16 +2670,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>SC Selman</v>
-      </c>
-      <c r="B115" t="str">
-        <v/>
+        <v>RS Gayakwad</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2690,19 +2690,19 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>CA Henry</v>
-      </c>
-      <c r="B116" t="str">
-        <v/>
+        <v>B Cooper</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2710,19 +2710,19 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>SS Connell</v>
-      </c>
-      <c r="B117" t="str">
-        <v/>
+        <v>AA Alleyne</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2730,19 +2730,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>WGAKK Kulasuriya</v>
-      </c>
-      <c r="B118" t="str">
-        <v/>
+        <v>A Mohammed</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>A Shrubsole</v>
-      </c>
-      <c r="B119" t="str">
-        <v/>
+        <v>SC Selman</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
